--- a/ImpFiles/Api-Assignment-lokesh.xlsx
+++ b/ImpFiles/Api-Assignment-lokesh.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="65">
   <si>
     <t>slno</t>
   </si>
@@ -214,10 +214,6 @@
     <t>to join perticular tournament</t>
   </si>
   <si>
-    <t>pass parameters in KEY:VALUE
-pair</t>
-  </si>
-  <si>
     <t>{
   "message":"Joined"
 }</t>
@@ -226,13 +222,7 @@
     <t>id=id</t>
   </si>
   <si>
-    <t>/Tournaments/join?id=id</t>
-  </si>
-  <si>
     <t>to get the status of the Tournament</t>
-  </si>
-  <si>
-    <t>/Tournament/info?id=id</t>
   </si>
   <si>
     <t>{
@@ -246,9 +236,6 @@
   <si>
     <t>to get tournmaents open for 
 regitration</t>
-  </si>
-  <si>
-    <t>/Tournaments/registration</t>
   </si>
   <si>
     <t>to get only registered tournaments</t>
@@ -309,6 +296,21 @@
   "Entry fee":fee,
   "Players Joined":no
 }</t>
+  </si>
+  <si>
+    <t>/tournaments/{id}</t>
+  </si>
+  <si>
+    <t>/tournaments/join?id=id</t>
+  </si>
+  <si>
+    <t>/tournament/info?id=id</t>
+  </si>
+  <si>
+    <t>/tournaments/registration</t>
+  </si>
+  <si>
+    <t>204 no content</t>
   </si>
 </sst>
 </file>
@@ -652,8 +654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -834,7 +836,7 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="E7" t="s">
         <v>11</v>
@@ -912,7 +914,7 @@
         <v>37</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>33</v>
@@ -938,7 +940,7 @@
         <v>39</v>
       </c>
       <c r="D11" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>11</v>
@@ -949,8 +951,8 @@
       <c r="G11" t="s">
         <v>41</v>
       </c>
-      <c r="H11">
-        <v>201</v>
+      <c r="H11" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -964,7 +966,7 @@
         <v>42</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>11</v>
@@ -975,8 +977,8 @@
       <c r="G12" t="s">
         <v>11</v>
       </c>
-      <c r="H12">
-        <v>200</v>
+      <c r="H12" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="45">
@@ -990,16 +992,14 @@
         <v>43</v>
       </c>
       <c r="D13" t="s">
-        <v>47</v>
-      </c>
-      <c r="E13" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="G13" t="s">
         <v>45</v>
-      </c>
-      <c r="G13" t="s">
-        <v>46</v>
       </c>
       <c r="H13">
         <v>200</v>
@@ -1013,19 +1013,19 @@
         <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D14" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>41</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H14">
         <v>200</v>
@@ -1039,10 +1039,10 @@
         <v>8</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D15" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>11</v>
@@ -1065,16 +1065,16 @@
         <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>41</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>11</v>
@@ -1088,19 +1088,19 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C17" t="s">
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="G17" t="s">
         <v>11</v>
@@ -1114,19 +1114,19 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C18" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D18" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="G18" t="s">
         <v>11</v>
@@ -1143,16 +1143,16 @@
         <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D19" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="G19" t="s">
         <v>11</v>
@@ -1169,16 +1169,16 @@
         <v>16</v>
       </c>
       <c r="C20" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D20" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="G20" t="s">
         <v>11</v>
@@ -1195,16 +1195,16 @@
         <v>21</v>
       </c>
       <c r="C21" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D21" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="G21" t="s">
         <v>11</v>

--- a/ImpFiles/Api-Assignment-lokesh.xlsx
+++ b/ImpFiles/Api-Assignment-lokesh.xlsx
@@ -655,7 +655,8 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
